--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-x + y_1 + y_2</t>
-  </si>
-  <si>
-    <t>0.2737508709830059</t>
+    <t>-0.25 - x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6261647232860903</t>
-  </si>
-  <si>
-    <t>0.895437305357249</t>
-  </si>
-  <si>
-    <t>0.7406291397079426</t>
-  </si>
-  <si>
-    <t>-y_1</t>
-  </si>
-  <si>
-    <t>-1.9722381242334144</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>0.7000000000000001</t>
+  </si>
+  <si>
+    <t>1.7000000000000002 - y_1</t>
+  </si>
+  <si>
+    <t>-1.7000000000000002</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9520276521867266</t>
-  </si>
-  <si>
-    <t>0.46968756729180194</t>
-  </si>
-  <si>
-    <t>0.6890356543355407</t>
-  </si>
-  <si>
-    <t>-y_2</t>
-  </si>
-  <si>
-    <t>-2.1564436298587824</t>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>-3.8 - y_2</t>
+  </si>
+  <si>
+    <t>-3.8</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.1729467021495048</t>
-  </si>
-  <si>
-    <t>0.487063327093314</t>
-  </si>
-  <si>
-    <t>0.5613698104374347</t>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
   </si>
   <si>
     <t>x</t>
@@ -129,31 +129,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>3.854930883109191</t>
-  </si>
-  <si>
-    <t>1.9722381242334144</t>
-  </si>
-  <si>
-    <t>2.1564436298587824</t>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.646375195332778</t>
-  </si>
-  <si>
-    <t>-1.4532180211365855</t>
+    <t>-1.9000000000000001</t>
+  </si>
+  <si>
+    <t>-0.96</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.3979878622988614</t>
-  </si>
-  <si>
-    <t>-0.5648176081227173</t>
+    <t>5.8999999999999995</t>
+  </si>
+  <si>
+    <t>-3.6999999999999997</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.25 - x + y_1 + y_2</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>0.7000000000000001</t>
-  </si>
-  <si>
-    <t>1.7000000000000002 - y_1</t>
-  </si>
-  <si>
-    <t>-1.7000000000000002</t>
+    <t>-x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>4.85 - y_1</t>
+  </si>
+  <si>
+    <t>-4.85</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>-3.8 - y_2</t>
-  </si>
-  <si>
-    <t>-3.8</t>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>-4.7 - y_2</t>
+  </si>
+  <si>
+    <t>-4.7</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
   <si>
     <t>x</t>
@@ -129,31 +129,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.9000000000000001</t>
-  </si>
-  <si>
-    <t>-0.96</t>
+    <t>-4.54</t>
+  </si>
+  <si>
+    <t>-0.74</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>5.8999999999999995</t>
-  </si>
-  <si>
-    <t>-3.6999999999999997</t>
+    <t>-3.45</t>
+  </si>
+  <si>
+    <t>-6.200000000000001</t>
   </si>
   <si>
     <t>vec_alpha</t>
